--- a/Data collection Project/Data.xlsx
+++ b/Data collection Project/Data.xlsx
@@ -1,74 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexo\Documents\GitHub\Data-Collecter\Data collection Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E7993D-86B9-4E25-833C-35473C8CE760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{C322272A-9650-4C99-B799-B9A79FAF8378}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-35040" yWindow="-7570" windowWidth="21600" windowHeight="11390" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>wad</t>
-  </si>
-  <si>
-    <t>wd</t>
-  </si>
-  <si>
-    <t>da</t>
-  </si>
-  <si>
-    <t>Name:</t>
-  </si>
-  <si>
-    <t>Num:</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -83,25 +55,96 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1"/>
+    <cellStyle name="Currency" xfId="2"/>
+    <cellStyle name="Currency [0]" xfId="3"/>
+    <cellStyle name="Comma" xfId="4"/>
+    <cellStyle name="Comma [0]" xfId="5"/>
+    <cellStyle name="Hyperlink" xfId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,51 +464,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D182D8-F007-4FA6-BDAF-43411B3AE4C9}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="B7" sqref="A5:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col width="31.85546875" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Name:</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Num:</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>wad</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>da</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>wd</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>etyrje</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>erjtyej</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sihpfoi</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>moi</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>da</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>erttyjw</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>edtyjire</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>etyju</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Data collection Project/Data.xlsx
+++ b/Data collection Project/Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-35040" yWindow="-7570" windowWidth="21600" windowHeight="11390" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5400" yWindow="1230" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -469,10 +469,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="A5:B7"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15"/>
@@ -492,116 +492,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>wad</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>da</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>wd</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>etyrje</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>erjtyej</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>sihpfoi</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>moi</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>da</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>erttyjw</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>edtyjire</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>etyju</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
